--- a/XOR_in_Excel/VarunThvar_XOR_in_Excel.xlsx
+++ b/XOR_in_Excel/VarunThvar_XOR_in_Excel.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/varunthvar1/Documents/GitHub/ATCS-NeuralNetworks/XOR_in_Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC47C72-81CD-6046-9CF1-0A3820FB0091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14C2210-90E5-F442-98BB-65EB973E3339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{048D9B0D-FE51-7345-BB5F-1A6A83AA65E3}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19780" activeTab="2" xr2:uid="{048D9B0D-FE51-7345-BB5F-1A6A83AA65E3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="AND" sheetId="1" r:id="rId1"/>
+    <sheet name="OR" sheetId="2" r:id="rId2"/>
+    <sheet name="XOR" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,9 +37,95 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="27">
+  <si>
+    <t xml:space="preserve">a0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a1 </t>
+  </si>
+  <si>
+    <t>T (AND)</t>
+  </si>
+  <si>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>a10</t>
+  </si>
+  <si>
+    <t>a11</t>
+  </si>
+  <si>
+    <t>a20</t>
+  </si>
+  <si>
+    <t>a21</t>
+  </si>
+  <si>
+    <t>w200</t>
+  </si>
+  <si>
+    <t>w210</t>
+  </si>
+  <si>
+    <t>Weights</t>
+  </si>
+  <si>
+    <t>w100</t>
+  </si>
+  <si>
+    <t>w110</t>
+  </si>
+  <si>
+    <t>w101</t>
+  </si>
+  <si>
+    <t>w111</t>
+  </si>
+  <si>
+    <t>1T</t>
+  </si>
+  <si>
+    <t>2T</t>
+  </si>
+  <si>
+    <t>3T</t>
+  </si>
+  <si>
+    <t>4T</t>
+  </si>
+  <si>
+    <t>1E</t>
+  </si>
+  <si>
+    <t>2E</t>
+  </si>
+  <si>
+    <t>3E</t>
+  </si>
+  <si>
+    <t>4E</t>
+  </si>
+  <si>
+    <t>Total Error</t>
+  </si>
+  <si>
+    <t>T (XOR)</t>
+  </si>
+  <si>
+    <t>T (OR)</t>
+  </si>
+  <si>
+    <t>Color Guide</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -45,16 +133,60 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -62,12 +194,172 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,12 +674,1813 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046D31D5-31EC-904B-A1ED-83AC31BE6985}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:T45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="9" max="9" width="10.83203125" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="J2">
+        <f>T12+T22+T32+T42</f>
+        <v>0.56730000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="18">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="18">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="10">
+        <f>A2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="15">
+        <f>$F$2</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="15">
+        <f>$F$3</f>
+        <v>0.4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="13">
+        <f>(B9*E10)+(B15+E11)</f>
+        <v>0.4</v>
+      </c>
+      <c r="J11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="15">
+        <f>$H$3</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M12" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="14">
+        <f>(H11*K11)+(H13*K13)</f>
+        <v>0.2</v>
+      </c>
+      <c r="P12" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q12" s="12">
+        <f>C2</f>
+        <v>0</v>
+      </c>
+      <c r="S12" t="s">
+        <v>19</v>
+      </c>
+      <c r="T12" s="13">
+        <f>0.5*(Q12-N12)^2</f>
+        <v>2.0000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="15">
+        <f>$F$4</f>
+        <v>0.6</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="13">
+        <f>(B9*E13)+(B15*E14)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="15">
+        <f>$H$4</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="15">
+        <f>$F$5</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="10">
+        <f>B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="10">
+        <f>A3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="15">
+        <f>$F$2</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="15">
+        <f>$F$3</f>
+        <v>0.4</v>
+      </c>
+      <c r="G21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="13">
+        <f>(B19*E20)+(B25+E21)</f>
+        <v>1.4</v>
+      </c>
+      <c r="J21" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="15">
+        <f>$H$3</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M22" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="14">
+        <f>(H21*K21)+(H23*K23)</f>
+        <v>0.90999999999999992</v>
+      </c>
+      <c r="P22" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q22" s="12">
+        <f>C3</f>
+        <v>0</v>
+      </c>
+      <c r="S22" t="s">
+        <v>20</v>
+      </c>
+      <c r="T22" s="13">
+        <f>0.5*(Q22-N22)^2</f>
+        <v>0.41404999999999992</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="15">
+        <f>$F$4</f>
+        <v>0.6</v>
+      </c>
+      <c r="G23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="13">
+        <f>(B19*E23)+(B25*E24)</f>
+        <v>0.7</v>
+      </c>
+      <c r="J23" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="15">
+        <f>$H$4</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="15">
+        <f>$F$5</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="10">
+        <f>B3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="10">
+        <f>A4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="15">
+        <f>$F$2</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="15">
+        <f>$F$3</f>
+        <v>0.4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="13">
+        <f>(B29*E30)+(B35+E31)</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="J31" t="s">
+        <v>8</v>
+      </c>
+      <c r="K31" s="15">
+        <f>$H$3</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M32" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="14">
+        <f>(H31*K31)+(H33*K33)</f>
+        <v>0.48000000000000004</v>
+      </c>
+      <c r="P32" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q32" s="12">
+        <f>C4</f>
+        <v>0</v>
+      </c>
+      <c r="S32" t="s">
+        <v>21</v>
+      </c>
+      <c r="T32" s="13">
+        <f>0.5*(Q32-N32)^2</f>
+        <v>0.11520000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="15">
+        <f>$F$4</f>
+        <v>0.6</v>
+      </c>
+      <c r="G33" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="13">
+        <f>(B29*E33)+(B35*E34)</f>
+        <v>0.6</v>
+      </c>
+      <c r="J33" t="s">
+        <v>9</v>
+      </c>
+      <c r="K33" s="15">
+        <f>$H$4</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="15">
+        <f>$F$5</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="10">
+        <f>B13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="10">
+        <f>A5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="15">
+        <f>$F$2</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="15">
+        <f>$F$3</f>
+        <v>0.4</v>
+      </c>
+      <c r="G41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" s="13">
+        <f>(B39*E40)+(B45+E41)</f>
+        <v>1.5999999999999999</v>
+      </c>
+      <c r="J41" t="s">
+        <v>8</v>
+      </c>
+      <c r="K41" s="15">
+        <f>$H$3</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M42" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="14">
+        <f>(H41*K41)+(H43*K43)</f>
+        <v>1.19</v>
+      </c>
+      <c r="P42" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q42" s="12">
+        <f>C5</f>
+        <v>1</v>
+      </c>
+      <c r="S42" t="s">
+        <v>22</v>
+      </c>
+      <c r="T42" s="13">
+        <f>0.5*(Q42-N42)^2</f>
+        <v>1.804999999999999E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="15">
+        <f>$F$4</f>
+        <v>0.6</v>
+      </c>
+      <c r="G43" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="13">
+        <f>(B39*E43)+(B45*E44)</f>
+        <v>1.2999999999999998</v>
+      </c>
+      <c r="J43" t="s">
+        <v>9</v>
+      </c>
+      <c r="K43" s="15">
+        <f>$H$4</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="15">
+        <f>$F$5</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="10">
+        <f>B5</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35EA227-ACBD-8E4D-8C8A-3A087F56F1EC}">
+  <dimension ref="A1:T45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="J2">
+        <f>T12+T22+T32+T42</f>
+        <v>0.17730000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="18">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="18">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="10">
+        <f>A2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="15">
+        <f>$F$2</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="15">
+        <f>$F$3</f>
+        <v>0.4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="13">
+        <f>(B9*E10)+(B15+E11)</f>
+        <v>0.4</v>
+      </c>
+      <c r="J11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="15">
+        <f>$H$3</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M12" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="14">
+        <f>(H11*K11)+(H13*K13)</f>
+        <v>0.2</v>
+      </c>
+      <c r="P12" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q12" s="12">
+        <f>C2</f>
+        <v>0</v>
+      </c>
+      <c r="S12" t="s">
+        <v>19</v>
+      </c>
+      <c r="T12" s="13">
+        <f>0.5*(Q12-N12)^2</f>
+        <v>2.0000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="15">
+        <f>$F$4</f>
+        <v>0.6</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="13">
+        <f>(B9*E13)+(B15*E14)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="15">
+        <f>$H$4</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="15">
+        <f>$F$5</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="10">
+        <f>B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="10">
+        <f>A3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="15">
+        <f>$F$2</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="15">
+        <f>$F$3</f>
+        <v>0.4</v>
+      </c>
+      <c r="G21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="13">
+        <f>(B19*E20)+(B25+E21)</f>
+        <v>1.4</v>
+      </c>
+      <c r="J21" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="15">
+        <f>$H$3</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M22" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="14">
+        <f>(H21*K21)+(H23*K23)</f>
+        <v>0.90999999999999992</v>
+      </c>
+      <c r="P22" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q22" s="12">
+        <f>C3</f>
+        <v>1</v>
+      </c>
+      <c r="S22" t="s">
+        <v>20</v>
+      </c>
+      <c r="T22" s="13">
+        <f>0.5*(Q22-N22)^2</f>
+        <v>4.0500000000000076E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="15">
+        <f>$F$4</f>
+        <v>0.6</v>
+      </c>
+      <c r="G23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="13">
+        <f>(B19*E23)+(B25*E24)</f>
+        <v>0.7</v>
+      </c>
+      <c r="J23" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="15">
+        <f>$H$4</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="15">
+        <f>$F$5</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="10">
+        <f>B3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="10">
+        <f>A4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="15">
+        <f>$F$2</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="15">
+        <f>$F$3</f>
+        <v>0.4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="13">
+        <f>(B29*E30)+(B35+E31)</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="J31" t="s">
+        <v>8</v>
+      </c>
+      <c r="K31" s="15">
+        <f>$H$3</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M32" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="14">
+        <f>(H31*K31)+(H33*K33)</f>
+        <v>0.48000000000000004</v>
+      </c>
+      <c r="P32" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q32" s="12">
+        <f>C4</f>
+        <v>1</v>
+      </c>
+      <c r="S32" t="s">
+        <v>21</v>
+      </c>
+      <c r="T32" s="13">
+        <f>0.5*(Q32-N32)^2</f>
+        <v>0.13520000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="15">
+        <f>$F$4</f>
+        <v>0.6</v>
+      </c>
+      <c r="G33" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="13">
+        <f>(B29*E33)+(B35*E34)</f>
+        <v>0.6</v>
+      </c>
+      <c r="J33" t="s">
+        <v>9</v>
+      </c>
+      <c r="K33" s="15">
+        <f>$H$4</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="15">
+        <f>$F$5</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="10">
+        <f>B13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="10">
+        <f>A5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="15">
+        <f>$F$2</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="15">
+        <f>$F$3</f>
+        <v>0.4</v>
+      </c>
+      <c r="G41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" s="13">
+        <f>(B39*E40)+(B45+E41)</f>
+        <v>1.5999999999999999</v>
+      </c>
+      <c r="J41" t="s">
+        <v>8</v>
+      </c>
+      <c r="K41" s="15">
+        <f>$H$3</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M42" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="14">
+        <f>(H41*K41)+(H43*K43)</f>
+        <v>1.19</v>
+      </c>
+      <c r="P42" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q42" s="12">
+        <f>C5</f>
+        <v>1</v>
+      </c>
+      <c r="S42" t="s">
+        <v>22</v>
+      </c>
+      <c r="T42" s="13">
+        <f>0.5*(Q42-N42)^2</f>
+        <v>1.804999999999999E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="15">
+        <f>$F$4</f>
+        <v>0.6</v>
+      </c>
+      <c r="G43" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="13">
+        <f>(B39*E43)+(B45*E44)</f>
+        <v>1.2999999999999998</v>
+      </c>
+      <c r="J43" t="s">
+        <v>9</v>
+      </c>
+      <c r="K43" s="15">
+        <f>$H$4</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="15">
+        <f>$F$5</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="10">
+        <f>B5</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F907ABA-7022-8B48-BC26-9BE7C78EC975}">
+  <dimension ref="A1:T45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="J2">
+        <f>T12+T22+T32+T42</f>
+        <v>0.6712999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="18">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="18">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="10">
+        <f>A2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="15">
+        <f>$F$2</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="15">
+        <f>$F$3</f>
+        <v>0.4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="13">
+        <f>(B9*E10)+(B15*E11)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="15">
+        <f>$H$3</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M12" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="14">
+        <f>(H11*K11)+(H13*K13)</f>
+        <v>0</v>
+      </c>
+      <c r="P12" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q12" s="12">
+        <f>C2</f>
+        <v>0</v>
+      </c>
+      <c r="S12" t="s">
+        <v>19</v>
+      </c>
+      <c r="T12" s="13">
+        <f>0.5*(Q12-N12)^2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="15">
+        <f>$F$4</f>
+        <v>0.6</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="13">
+        <f>(B9*E13)+(B15*E14)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="15">
+        <f>$H$4</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="15">
+        <f>$F$5</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="10">
+        <f>B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="10">
+        <f>A3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="15">
+        <f>$F$2</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="15">
+        <f>$F$3</f>
+        <v>0.4</v>
+      </c>
+      <c r="G21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="13">
+        <f>(B19*E20)+(B25*E21)</f>
+        <v>0.4</v>
+      </c>
+      <c r="J21" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="15">
+        <f>$H$3</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M22" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="14">
+        <f>(H21*K21)+(H23*K23)</f>
+        <v>0.41000000000000003</v>
+      </c>
+      <c r="P22" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q22" s="12">
+        <f>C3</f>
+        <v>1</v>
+      </c>
+      <c r="S22" t="s">
+        <v>20</v>
+      </c>
+      <c r="T22" s="13">
+        <f>0.5*(Q22-N22)^2</f>
+        <v>0.17404999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="15">
+        <f>$F$4</f>
+        <v>0.6</v>
+      </c>
+      <c r="G23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="13">
+        <f>(B19*E23)+(B25*E24)</f>
+        <v>0.7</v>
+      </c>
+      <c r="J23" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="15">
+        <f>$H$4</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="15">
+        <f>$F$5</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="10">
+        <f>B3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="10">
+        <f>A4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="15">
+        <f>$F$2</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="15">
+        <f>$F$3</f>
+        <v>0.4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="13">
+        <f>(B29*E30)+(B35*E31)</f>
+        <v>0.2</v>
+      </c>
+      <c r="J31" t="s">
+        <v>8</v>
+      </c>
+      <c r="K31" s="15">
+        <f>$H$3</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M32" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="14">
+        <f>(H31*K31)+(H33*K33)</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="P32" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q32" s="12">
+        <f>C4</f>
+        <v>1</v>
+      </c>
+      <c r="S32" t="s">
+        <v>21</v>
+      </c>
+      <c r="T32" s="13">
+        <f>0.5*(Q32-N32)^2</f>
+        <v>0.25919999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="15">
+        <f>$F$4</f>
+        <v>0.6</v>
+      </c>
+      <c r="G33" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="13">
+        <f>(B29*E33)+(B35*E34)</f>
+        <v>0.6</v>
+      </c>
+      <c r="J33" t="s">
+        <v>9</v>
+      </c>
+      <c r="K33" s="15">
+        <f>$H$4</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="15">
+        <f>$F$5</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="10">
+        <f>B13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="10">
+        <f>A5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="15">
+        <f>$F$2</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="15">
+        <f>$F$3</f>
+        <v>0.4</v>
+      </c>
+      <c r="G41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" s="13">
+        <f>(B39*E40)+(B45*E41)</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="J41" t="s">
+        <v>8</v>
+      </c>
+      <c r="K41" s="15">
+        <f>$H$3</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M42" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="14">
+        <f>(H41*K41)+(H43*K43)</f>
+        <v>0.69</v>
+      </c>
+      <c r="P42" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q42" s="12">
+        <f>C5</f>
+        <v>0</v>
+      </c>
+      <c r="S42" t="s">
+        <v>22</v>
+      </c>
+      <c r="T42" s="13">
+        <f>0.5*(Q42-N42)^2</f>
+        <v>0.23804999999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="15">
+        <f>$F$4</f>
+        <v>0.6</v>
+      </c>
+      <c r="G43" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="13">
+        <f>(B39*E43)+(B45*E44)</f>
+        <v>1.2999999999999998</v>
+      </c>
+      <c r="J43" t="s">
+        <v>9</v>
+      </c>
+      <c r="K43" s="15">
+        <f>$H$4</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="15">
+        <f>$F$5</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="10">
+        <f>B5</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>